--- a/medicine/Enfance/Anouk_Ricard/Anouk_Ricard.xlsx
+++ b/medicine/Enfance/Anouk_Ricard/Anouk_Ricard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anouk Ricard, née le 28 décembre 1970 à Istres, est une illustratrice et auteure de bande dessinée française. Elle travaille pour la presse et l'édition jeunesse, pour des expositions de peintures/dessins ainsi que des revues de microédition. Elle a résidé et travaillé à Strasbourg, puis à Lyon[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anouk Ricard, née le 28 décembre 1970 à Istres, est une illustratrice et auteure de bande dessinée française. Elle travaille pour la presse et l'édition jeunesse, pour des expositions de peintures/dessins ainsi que des revues de microédition. Elle a résidé et travaillé à Strasbourg, puis à Lyon.
 </t>
         </is>
       </c>
@@ -511,17 +523,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sortie diplômée en 1995 de l'École supérieure des arts décoratifs de Strasbourg, Anouk Ricard débute comme illustratrice pour la presse jeunesse (Bayard, Milan).
-Elle est remarquée par Olivier Douzou[2] qui édite son premier livre Les Aventures de Pafy, Pouly, Catty, Blatty aux éditions du Rouergue en 1999.
-En 2004, elle démarre une série de bandes dessinées jeunesse humoristique Anna et Froga. Publiée en partie dans le magazine Capsule cosmique, la série qui compte cinq tomes a été nommée à deux reprises dans la sélection officielle du festival d'Angoulême[3],[4]. La série connaît un certain succès : elle est publiée dans de nombreux pays et dans plus de 10 langues dont l'allemand, l'anglais, l'espagnol, l'italien, le suédois et le chinois[5].
+Elle est remarquée par Olivier Douzou qui édite son premier livre Les Aventures de Pafy, Pouly, Catty, Blatty aux éditions du Rouergue en 1999.
+En 2004, elle démarre une série de bandes dessinées jeunesse humoristique Anna et Froga. Publiée en partie dans le magazine Capsule cosmique, la série qui compte cinq tomes a été nommée à deux reprises dans la sélection officielle du festival d'Angoulême,. La série connaît un certain succès : elle est publiée dans de nombreux pays et dans plus de 10 langues dont l'allemand, l'anglais, l'espagnol, l'italien, le suédois et le chinois.
 Avec Commissaire Toumi (2008), elle signe sa première BD adulte.
 En 2009, pour le journal Spirou, elle entame une série de strips avec Hugo Piette intitulée Galaxie chérie : à bord de son vaisseau Modernity, le capitaine Philippe et son équipage se promènent dans l'espace tout en luttant pour préserver la paix.
-En 2012, elle est lauréate du prix BD 2012 des lecteurs de Libération[6] et du Prix de la meilleure bande dessinée francophone du Festival d'Angoulême : le choix polonais pour son ouvrage Coucous Bouzon.
+En 2012, elle est lauréate du prix BD 2012 des lecteurs de Libération et du Prix de la meilleure bande dessinée francophone du Festival d'Angoulême : le choix polonais pour son ouvrage Coucous Bouzon.
 Elle participe depuis mars 2013 à la revue de bande dessinée numérique Professeur Cyclope.
-Pour sa série Les Experts, prépubliée dans le journal Le Monde[7], elle invente les personnages de Pipo et Cano qui prodiguent des conseils originaux dans toutes sortes de domaines : faire un cadeau, payer ses impôts, faire grève...
-En 2023, elle obtient le Prix spécial du jury du Festival d'Angoulême, pour son album Animan[8].
+Pour sa série Les Experts, prépubliée dans le journal Le Monde, elle invente les personnages de Pipo et Cano qui prodiguent des conseils originaux dans toutes sortes de domaines : faire un cadeau, payer ses impôts, faire grève...
+En 2023, elle obtient le Prix spécial du jury du Festival d'Angoulême, pour son album Animan.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Style</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le style graphique d'Anouk Ricard, que l'on pourrait qualifier de faussement naïf, ainsi que l'emploi de couleurs vives, peuvent laisser croire à des histoires destinées seulement aux enfants. Mais l'auteure fait preuve d'audace en jouant avec l'humour absurde, les situations extravagantes, le non-sens, la loufoquerie[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le style graphique d'Anouk Ricard, que l'on pourrait qualifier de faussement naïf, ainsi que l'emploi de couleurs vives, peuvent laisser croire à des histoires destinées seulement aux enfants. Mais l'auteure fait preuve d'audace en jouant avec l'humour absurde, les situations extravagantes, le non-sens, la loufoquerie.
 </t>
         </is>
       </c>
@@ -583,8 +599,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bandes dessinées
-Aux Éditions 2024
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aux Éditions 2024
 Boule de feu / avec Étienne Chaize. Strasbourg : 2024, 02/2019, 72 p.  (ISBN 978-2-901000-05-1). Rééd. 06/2021, 72 p.  (ISBN 978-2-901000-63-1)
 Boule de neige / Anouk Ricard &amp; Étienne Chaize. Strasbourg : Éditions 2024, 11/2019.  (ISBN 978-2-901000-18-1). Coffret de 15 cartes postales mettant en scène l'univers baroque et décalé de Boule de feu.
 Aux Éditions L'Articho
@@ -596,7 +617,7 @@
 Faits divers. Bègles : Cornelius, 2012, 64 p. (Collection Delphine).  (ISBN 978-2-36081041-3)
 Faits divers vol. 2. Bègles : Cornelius, 2017, 64 p. (Collection Delphine).  (ISBN 978-2-36081-145-8)
 Aux éditions Exemplaire
-Animan. Marseille : éditions Exemplaire, 09/2022, 80 p.  (ISBN 978-2-492926-07-5) - Fauve spécial du jury lors du Festival d'Angoulême 2023[8]
+Animan. Marseille : éditions Exemplaire, 09/2022, 80 p.  (ISBN 978-2-492926-07-5) - Fauve spécial du jury lors du Festival d'Angoulême 2023
 Aux éditions Gallimard
 Patti et les fourmis. Paris : Gallimard jeunesse, 2010, 48 p.  (ISBN 978-2-07-062801-8)
 Coucous Bouzon. Paris : Gallimard, 2011, 96 p. (Bayou).  (ISBN 978-2-07-063996-0)
@@ -609,9 +630,43 @@
 Anna et Froga tome 3 : Frissons, fraises et chips, Sarbacane, mai 2009, 48 p.  (ISBN 978-2-84865-291-7)
 Anna et Froga tome 4 : Top niveau, Sarbacane, 2010, 48 p.  (ISBN 978-2-84865-401-0)
 Anna et Froga tome 5 : En vadrouille, Sarbacane, 2012, 48 p.  (ISBN 978-2-84865-529-1)
-Anna et Froga : l'intégrale !, Sarbacane, 10/2014, 208 p.  (ISBN 978-2-84865-741-7). Rééd. 05/2022, 209 p.  (ISBN 978-2-37731-989-3)
-Albums
-Aux Éditions Albin Michel
+Anna et Froga : l'intégrale !, Sarbacane, 10/2014, 208 p.  (ISBN 978-2-84865-741-7). Rééd. 05/2022, 209 p.  (ISBN 978-2-37731-989-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anouk_Ricard</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anouk_Ricard</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aux Éditions Albin Michel
 Les Saisons et les climats, avec Pascal Desjours. Paris : Albin Michel, 09/2001, 75 p., (Sciences en poche ; 14),  (ISBN 2-226-11948-5)
 Aux éditions Agrume
 Papa ! Papa ! Papa ! / texte de Julien Hirsinger &amp; Constance Verluca. Paris : Agrume, 01/2020, 32 p.  (ISBN 978-2-490975-08-2)
@@ -657,46 +712,7 @@
 Petit manuel pour passer à table / texte de Paule Battault. Paris : Le Seuil, 03/2017, 14 p.  (ISBN 979-10-235-0845-1)
 Petit Manuel pour voyager tranquille / texte de Paule Battault. Paris : Le Seuil, 03/2018, 14 p.  (ISBN 979-10-235-1035-5)
 Super Doigt et la tribu des Doigts verts / texte de Vincent Guigue. Paris : Le Seuil, 09/2022, 18 p.  (ISBN 979-10-235-1558-9)
-Super Doigt et le gang des Orteils malfaisants / texte de Vincent Guigue. Paris : Le Seuil, 09/2022, 18 p.  (ISBN 979-10-235-1559-6)
-Préface
-Tout brûle comme prévu (volume 2) / Adrien Yeung. Marseille : Même pas mal éditions, 04/2022, 144 p.  (ISBN 978-2-918645-69-6)
-Jeux
-L'Année de Léo &amp; Lola. 2 puzzles de 24 pièces. Paris : Djeco. 3070900070080
-La Journée de Léo &amp; Lola. 2 puzzles de 24 pièces. Paris : Djeco. 3070900070073
-Le jeu de toutes les familles / un jeu conçu par Delphine La Sardine &amp; L'Articho ; avec les dessins d'Anouk Ricard ; photos de Laurent Hart. Bordeaux : Les Requins marteaux, octobre 2015.  (ISBN 978-2-84961-173-9). Jeu des sept familles revisité avec des familles aussi différentes les unes que les autres (recomposées, métissées, monoparentales, homoparentales ou traditionnelles)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anouk_Ricard</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anouk_Ricard</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Télévision</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anouk Ricard réalise des courts métrages animés en volume et dessinés, dont un pour la série Avez-vous déjà vu ..? produite par Chez Wam et diffusée sur M6, en 2006.
-Pour Arte et la revue Le Tigre, Anouk Ricard s'amuse à dessiner des récits très courts, en BD, à partir de faits divers cocasses, sur base de titres ridicules tirés de la presse régionale.
-En 2021, la série Anna et Froga devient une série télévisée en 3D pour enfants, réalisée par Dominique Etchécopar, sous le titre Anna et ses amis. La série, coproduite par Superprod Animation et Atmosphere Media, est  diffusée sur Okoo, la plateforme enfants de France Télévisions. Elle compte 78 épisodes de 7 minutes[5].
-</t>
+Super Doigt et le gang des Orteils malfaisants / texte de Vincent Guigue. Paris : Le Seuil, 09/2022, 18 p.  (ISBN 979-10-235-1559-6)</t>
         </is>
       </c>
     </row>
@@ -721,20 +737,131 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Préface</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tout brûle comme prévu (volume 2) / Adrien Yeung. Marseille : Même pas mal éditions, 04/2022, 144 p.  (ISBN 978-2-918645-69-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anouk_Ricard</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anouk_Ricard</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jeux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L'Année de Léo &amp; Lola. 2 puzzles de 24 pièces. Paris : Djeco. 3070900070080
+La Journée de Léo &amp; Lola. 2 puzzles de 24 pièces. Paris : Djeco. 3070900070073
+Le jeu de toutes les familles / un jeu conçu par Delphine La Sardine &amp; L'Articho ; avec les dessins d'Anouk Ricard ; photos de Laurent Hart. Bordeaux : Les Requins marteaux, octobre 2015.  (ISBN 978-2-84961-173-9). Jeu des sept familles revisité avec des familles aussi différentes les unes que les autres (recomposées, métissées, monoparentales, homoparentales ou traditionnelles)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anouk_Ricard</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anouk_Ricard</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anouk Ricard réalise des courts métrages animés en volume et dessinés, dont un pour la série Avez-vous déjà vu ..? produite par Chez Wam et diffusée sur M6, en 2006.
+Pour Arte et la revue Le Tigre, Anouk Ricard s'amuse à dessiner des récits très courts, en BD, à partir de faits divers cocasses, sur base de titres ridicules tirés de la presse régionale.
+En 2021, la série Anna et Froga devient une série télévisée en 3D pour enfants, réalisée par Dominique Etchécopar, sous le titre Anna et ses amis. La série, coproduite par Superprod Animation et Atmosphere Media, est  diffusée sur Okoo, la plateforme enfants de France Télévisions. Elle compte 78 épisodes de 7 minutes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anouk_Ricard</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anouk_Ricard</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Récompenses et nominations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Sélection officielle Essentiel jeunesse du festival d'Angoulême 2008 pour Tu veux un chwingue ? (Anna et Froga, tome 1)
 Sélection officielle Essentiel jeunesse du festival d'Angoulême 2009 pour Qu'est-ce qu'on fait maintenant ? (Anna et Froga, tome 2)
-Sélection officielle Essentiel jeunesse du festival d'Angoulême 2011 pour Patti et les fourmis [10]
-Sélection officielle du festival d'Angoulême 2012 pour Coucous Bouzon [11]
-dBD Awards 2012 catégorie Meilleur livre d'humour pour Coucous Bouzon [12]
-Prix BD 2012 des lecteurs de Libération pour Coucous Bouzon [13]
-Prix de la meilleure bande dessinée francophone du Festival d'Angoulême : le choix polonais 2012 pour Coucous Bouzon[14].
-Prix Schlingo 2018 pour l'ensemble de son œuvre [15]
-Fauve spécial du jury lors du Festival d'Angoulême 2023[8], pour Animan (éd. Exemplaire).</t>
+Sélection officielle Essentiel jeunesse du festival d'Angoulême 2011 pour Patti et les fourmis 
+Sélection officielle du festival d'Angoulême 2012 pour Coucous Bouzon 
+dBD Awards 2012 catégorie Meilleur livre d'humour pour Coucous Bouzon 
+Prix BD 2012 des lecteurs de Libération pour Coucous Bouzon 
+Prix de la meilleure bande dessinée francophone du Festival d'Angoulême : le choix polonais 2012 pour Coucous Bouzon.
+Prix Schlingo 2018 pour l'ensemble de son œuvre 
+Fauve spécial du jury lors du Festival d'Angoulême 2023, pour Animan (éd. Exemplaire).</t>
         </is>
       </c>
     </row>
